--- a/спецификация_шкафы_эеспо5.xlsx
+++ b/спецификация_шкафы_эеспо5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lily/Google Drive/Хорош/Проект/шкафы/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F6A3E-542D-4C47-B546-84BD9791A952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7078A30-445B-E548-91AB-BF1A8595E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ванна" sheetId="2" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1534,16 +1534,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1553,17 +1595,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
@@ -1577,68 +1613,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2227,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073E61D-027D-41FD-8243-D23A2217F13E}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -2256,35 +2259,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="8"/>
@@ -2298,19 +2301,19 @@
       <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -2343,17 +2346,17 @@
       <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2392,21 +2395,21 @@
       <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
@@ -2438,37 +2441,37 @@
       <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="99" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="114"/>
+      <c r="I9" s="115" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="11"/>
@@ -2482,33 +2485,33 @@
       <c r="X9" s="23"/>
     </row>
     <row r="10" spans="1:24" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="62" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="120" t="s">
+      <c r="L10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
       <c r="P10" s="11"/>
@@ -3350,8 +3353,8 @@
         <v>1.1262160000000001</v>
       </c>
       <c r="K29" s="31"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
       <c r="P29" s="11"/>
@@ -3379,8 +3382,8 @@
         <v>0</v>
       </c>
       <c r="K30" s="31"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
       <c r="P30" s="11"/>
@@ -3408,8 +3411,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="31"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
       <c r="N31" s="8"/>
       <c r="O31" s="17"/>
       <c r="P31"/>
@@ -3437,8 +3440,8 @@
         <v>0</v>
       </c>
       <c r="K32" s="31"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="88"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
       <c r="N32" s="24"/>
       <c r="O32"/>
       <c r="P32"/>
@@ -3466,8 +3469,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="31"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
       <c r="N33" s="18"/>
       <c r="O33" s="19"/>
       <c r="P33"/>
@@ -3495,8 +3498,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="31"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
       <c r="N34" s="18"/>
       <c r="O34" s="19"/>
       <c r="P34"/>
@@ -3524,8 +3527,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="31"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
       <c r="N35" s="8"/>
       <c r="O35" s="20"/>
       <c r="P35" s="8"/>
@@ -3553,8 +3556,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="31"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="88"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="87"/>
     </row>
     <row r="37" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -3571,8 +3574,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="31"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="88"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58"/>
@@ -3589,8 +3592,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="33"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="87"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
@@ -3607,8 +3610,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="31"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="88"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
       <c r="P39" s="11"/>
@@ -3636,8 +3639,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="31"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
       <c r="P40" s="11"/>
@@ -3665,8 +3668,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="31"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="11"/>
@@ -3694,8 +3697,8 @@
         <v>0</v>
       </c>
       <c r="K42" s="31"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="88"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
       <c r="P42" s="11"/>
@@ -3723,8 +3726,8 @@
         <v>0</v>
       </c>
       <c r="K43" s="31"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="88"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
       <c r="P43" s="11"/>
@@ -3752,8 +3755,8 @@
         <v>6.3375019999999997</v>
       </c>
       <c r="K44" s="34"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="18"/>
       <c r="O44" s="19"/>
       <c r="P44"/>
@@ -3767,21 +3770,21 @@
       <c r="X44" s="8"/>
     </row>
     <row r="45" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="95"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="94"/>
       <c r="N45" s="18"/>
       <c r="O45" s="19"/>
       <c r="P45"/>
@@ -3814,73 +3817,73 @@
       <c r="M46" s="54"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
     </row>
     <row r="48" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
     </row>
     <row r="49" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="119"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="98"/>
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="105"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="90"/>
     </row>
     <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
@@ -3972,35 +3975,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="8"/>
@@ -4014,19 +4017,19 @@
       <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -4059,17 +4062,17 @@
       <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4108,21 +4111,21 @@
       <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
@@ -4154,37 +4157,37 @@
       <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="99" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="114"/>
+      <c r="I9" s="115" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="11"/>
@@ -4198,33 +4201,33 @@
       <c r="X9" s="23"/>
     </row>
     <row r="10" spans="1:24" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="62" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="120" t="s">
+      <c r="L10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
       <c r="P10" s="11"/>
@@ -5279,8 +5282,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="31"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
     </row>
     <row r="35" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
@@ -5297,8 +5300,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="31"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58"/>
@@ -5315,8 +5318,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="88"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="87"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -5333,8 +5336,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="31"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="88"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
       <c r="P37" s="11"/>
@@ -5362,8 +5365,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="31"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="87"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
       <c r="P38" s="11"/>
@@ -5391,8 +5394,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="31"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="88"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
       <c r="P39" s="11"/>
@@ -5420,8 +5423,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="31"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
       <c r="P40" s="11"/>
@@ -5449,8 +5452,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="31"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="11"/>
@@ -5478,8 +5481,8 @@
         <v>11.204958000000003</v>
       </c>
       <c r="K42" s="34"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="18"/>
       <c r="O42" s="19"/>
       <c r="P42"/>
@@ -5493,21 +5496,21 @@
       <c r="X42" s="8"/>
     </row>
     <row r="43" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="95"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="94"/>
       <c r="N43" s="18"/>
       <c r="O43" s="19"/>
       <c r="P43"/>
@@ -5540,73 +5543,73 @@
       <c r="M44" s="54"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="119"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="98"/>
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="105"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="90"/>
     </row>
     <row r="49" spans="3:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
@@ -5664,7 +5667,7 @@
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5692,35 +5695,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="8"/>
@@ -5734,19 +5737,19 @@
       <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -5779,17 +5782,17 @@
       <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
@@ -5828,21 +5831,21 @@
       <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
@@ -5874,37 +5877,37 @@
       <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="99" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="114"/>
+      <c r="I9" s="115" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="11"/>
@@ -5918,33 +5921,33 @@
       <c r="X9" s="23"/>
     </row>
     <row r="10" spans="1:24" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="62" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="107"/>
+      <c r="M10" s="118"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
       <c r="P10" s="11"/>
@@ -6679,7 +6682,7 @@
         <v>79</v>
       </c>
       <c r="C27" s="46">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="41"/>
@@ -6693,7 +6696,7 @@
       </c>
       <c r="J27" s="28">
         <f t="shared" si="0"/>
-        <v>4.1920000000000006E-2</v>
+        <v>4.1280000000000004E-2</v>
       </c>
       <c r="K27" s="83"/>
       <c r="L27" s="84" t="s">
@@ -6722,7 +6725,7 @@
         <v>80</v>
       </c>
       <c r="C28" s="46">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="41"/>
@@ -6736,7 +6739,7 @@
       </c>
       <c r="J28" s="28">
         <f t="shared" si="0"/>
-        <v>3.6000000000000004E-2</v>
+        <v>3.5360000000000003E-2</v>
       </c>
       <c r="K28" s="83"/>
       <c r="L28" s="84" t="s">
@@ -6765,7 +6768,7 @@
         <v>81</v>
       </c>
       <c r="C29" s="46">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
@@ -6779,7 +6782,7 @@
       </c>
       <c r="J29" s="28">
         <f t="shared" si="0"/>
-        <v>8.6400000000000001E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="K29" s="83"/>
       <c r="L29" s="84" t="s">
@@ -6915,8 +6918,8 @@
         <v>2.05416</v>
       </c>
       <c r="K32" s="31"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="116"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="120"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
       <c r="P32" s="11"/>
@@ -6954,8 +6957,8 @@
         <v>0.80264399999999991</v>
       </c>
       <c r="K33" s="31"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
       <c r="P33" s="11"/>
@@ -6983,8 +6986,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="31"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
       <c r="N34" s="8"/>
       <c r="O34" s="17"/>
       <c r="P34"/>
@@ -7012,8 +7015,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="31"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
       <c r="N35" s="24"/>
       <c r="O35"/>
       <c r="P35"/>
@@ -7041,8 +7044,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="31"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="88"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="87"/>
       <c r="N36" s="18"/>
       <c r="O36" s="19"/>
       <c r="P36"/>
@@ -7070,8 +7073,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="31"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="88"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
       <c r="N37" s="18"/>
       <c r="O37" s="19"/>
       <c r="P37"/>
@@ -7099,8 +7102,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="31"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="87"/>
       <c r="N38" s="8"/>
       <c r="O38" s="20"/>
       <c r="P38" s="8"/>
@@ -7128,8 +7131,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="31"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="88"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87"/>
     </row>
     <row r="40" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
@@ -7146,8 +7149,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="31"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="58"/>
@@ -7164,8 +7167,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="33"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
@@ -7182,8 +7185,8 @@
         <v>0</v>
       </c>
       <c r="K42" s="31"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="88"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
       <c r="P42" s="11"/>
@@ -7211,8 +7214,8 @@
         <v>0</v>
       </c>
       <c r="K43" s="31"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="88"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
       <c r="P43" s="11"/>
@@ -7240,8 +7243,8 @@
         <v>0</v>
       </c>
       <c r="K44" s="31"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="88"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
       <c r="N44" s="21"/>
       <c r="O44" s="22"/>
       <c r="P44" s="11"/>
@@ -7269,8 +7272,8 @@
         <v>0</v>
       </c>
       <c r="K45" s="31"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="88"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
       <c r="N45" s="21"/>
       <c r="O45" s="22"/>
       <c r="P45" s="11"/>
@@ -7298,8 +7301,8 @@
         <v>0</v>
       </c>
       <c r="K46" s="31"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="88"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
       <c r="N46" s="21"/>
       <c r="O46" s="22"/>
       <c r="P46" s="11"/>
@@ -7324,11 +7327,11 @@
       <c r="I47" s="38"/>
       <c r="J47" s="55">
         <f>J11+J15+J16+J18+J19+J21+J22+J23+J24+J25+J26+J27+J28+J29+J30+J32+J33+J34+J35+J36+J37+J38+J39+J40+J41+J42+J43+J44+J45+J46</f>
-        <v>11.627707999999995</v>
+        <v>11.627067999999998</v>
       </c>
       <c r="K47" s="34"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
       <c r="N47" s="18"/>
       <c r="O47" s="19"/>
       <c r="P47"/>
@@ -7342,21 +7345,21 @@
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="95"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="94"/>
       <c r="N48" s="18"/>
       <c r="O48" s="19"/>
       <c r="P48"/>
@@ -7389,73 +7392,73 @@
       <c r="M49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
     </row>
     <row r="51" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
     </row>
     <row r="52" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="119"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="98"/>
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="105"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="90"/>
     </row>
     <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
@@ -7479,9 +7482,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L39:M39"/>
     <mergeCell ref="A53:M53"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L32:M32"/>
@@ -7507,6 +7507,9 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L39:M39"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.18518518518518517" top="0.35" bottom="0.28999999999999998" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7547,35 +7550,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="8"/>
@@ -7589,19 +7592,19 @@
       <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -7634,17 +7637,17 @@
       <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
@@ -7683,21 +7686,21 @@
       <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
@@ -7729,37 +7732,37 @@
       <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="99" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="114"/>
+      <c r="I9" s="115" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="11"/>
@@ -7773,33 +7776,33 @@
       <c r="X9" s="23"/>
     </row>
     <row r="10" spans="1:24" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="62" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="120" t="s">
+      <c r="L10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
       <c r="P10" s="11"/>
@@ -8497,8 +8500,8 @@
         <v>0</v>
       </c>
       <c r="K27" s="31"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="88"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
       <c r="P27" s="11"/>
@@ -8526,8 +8529,8 @@
         <v>0</v>
       </c>
       <c r="K28" s="31"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
       <c r="P28" s="11"/>
@@ -8555,8 +8558,8 @@
         <v>0</v>
       </c>
       <c r="K29" s="31"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="8"/>
       <c r="O29" s="17"/>
       <c r="P29"/>
@@ -8584,8 +8587,8 @@
         <v>0</v>
       </c>
       <c r="K30" s="31"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="24"/>
       <c r="O30"/>
       <c r="P30"/>
@@ -8613,8 +8616,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="31"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
       <c r="N31" s="18"/>
       <c r="O31" s="19"/>
       <c r="P31"/>
@@ -8642,8 +8645,8 @@
         <v>0</v>
       </c>
       <c r="K32" s="31"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="88"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
       <c r="N32" s="18"/>
       <c r="O32" s="19"/>
       <c r="P32"/>
@@ -8671,8 +8674,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="31"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
       <c r="N33" s="8"/>
       <c r="O33" s="20"/>
       <c r="P33" s="8"/>
@@ -8700,8 +8703,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="31"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
     </row>
     <row r="35" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
@@ -8718,8 +8721,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="31"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58"/>
@@ -8736,8 +8739,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="88"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="87"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -8754,8 +8757,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="31"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="88"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
       <c r="P37" s="11"/>
@@ -8783,8 +8786,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="31"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="87"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
       <c r="P38" s="11"/>
@@ -8812,8 +8815,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="31"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="88"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
       <c r="P39" s="11"/>
@@ -8841,8 +8844,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="31"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
       <c r="P40" s="11"/>
@@ -8870,8 +8873,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="31"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="11"/>
@@ -8899,8 +8902,8 @@
         <v>26.983871999999998</v>
       </c>
       <c r="K42" s="34"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="18"/>
       <c r="O42" s="19"/>
       <c r="P42"/>
@@ -8914,21 +8917,21 @@
       <c r="X42" s="8"/>
     </row>
     <row r="43" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="95"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="94"/>
       <c r="N43" s="18"/>
       <c r="O43" s="19"/>
       <c r="P43"/>
@@ -8961,73 +8964,73 @@
       <c r="M44" s="54"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="119"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="98"/>
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="105"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="90"/>
     </row>
     <row r="49" spans="3:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
@@ -9090,8 +9093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06665C6C-520B-0940-97EF-58F1797C4E6B}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9119,35 +9122,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="8"/>
@@ -9161,19 +9164,19 @@
       <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -9206,17 +9209,17 @@
       <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
@@ -9255,21 +9258,21 @@
       <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
       <c r="P7" s="11"/>
@@ -9301,37 +9304,37 @@
       <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="99" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="114"/>
+      <c r="I9" s="115" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="11"/>
@@ -9345,33 +9348,33 @@
       <c r="X9" s="23"/>
     </row>
     <row r="10" spans="1:24" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="62" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="120" t="s">
+      <c r="L10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="103"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
       <c r="P10" s="11"/>
@@ -9603,7 +9606,7 @@
       <c r="A16" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="122" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="46">
@@ -9618,12 +9621,12 @@
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="48"/>
-      <c r="I16" s="51">
-        <v>3</v>
+      <c r="I16" s="121">
+        <v>5</v>
       </c>
       <c r="J16" s="28">
         <f t="shared" si="0"/>
-        <v>0.48024</v>
+        <v>0.8004</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="65"/>
@@ -9739,7 +9742,7 @@
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
       <c r="F19" s="47">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="48"/>
@@ -9748,7 +9751,7 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="0"/>
-        <v>0.16703999999999999</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="K19" s="31"/>
       <c r="L19" s="65"/>
@@ -9836,8 +9839,8 @@
       <c r="X21" s="23"/>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="46"/>
       <c r="D22" s="40"/>
       <c r="E22" s="41"/>
@@ -9997,8 +10000,8 @@
         <v>0</v>
       </c>
       <c r="K27" s="31"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="88"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
       <c r="P27" s="11"/>
@@ -10026,8 +10029,8 @@
         <v>0</v>
       </c>
       <c r="K28" s="31"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
       <c r="P28" s="11"/>
@@ -10055,8 +10058,8 @@
         <v>0</v>
       </c>
       <c r="K29" s="31"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="8"/>
       <c r="O29" s="17"/>
       <c r="P29"/>
@@ -10084,8 +10087,8 @@
         <v>0</v>
       </c>
       <c r="K30" s="31"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="24"/>
       <c r="O30"/>
       <c r="P30"/>
@@ -10113,8 +10116,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="31"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
       <c r="N31" s="18"/>
       <c r="O31" s="19"/>
       <c r="P31"/>
@@ -10142,8 +10145,8 @@
         <v>0</v>
       </c>
       <c r="K32" s="31"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="88"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
       <c r="N32" s="18"/>
       <c r="O32" s="19"/>
       <c r="P32"/>
@@ -10171,8 +10174,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="31"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
       <c r="N33" s="8"/>
       <c r="O33" s="20"/>
       <c r="P33" s="8"/>
@@ -10200,8 +10203,8 @@
         <v>0</v>
       </c>
       <c r="K34" s="31"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
     </row>
     <row r="35" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
@@ -10218,8 +10221,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="31"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58"/>
@@ -10236,8 +10239,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="88"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="87"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -10254,8 +10257,8 @@
         <v>0</v>
       </c>
       <c r="K37" s="31"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="88"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
       <c r="P37" s="11"/>
@@ -10283,8 +10286,8 @@
         <v>0</v>
       </c>
       <c r="K38" s="31"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="87"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
       <c r="P38" s="11"/>
@@ -10312,8 +10315,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="31"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="88"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
       <c r="P39" s="11"/>
@@ -10341,8 +10344,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="31"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
       <c r="P40" s="11"/>
@@ -10370,8 +10373,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="31"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="11"/>
@@ -10396,11 +10399,11 @@
       <c r="I42" s="38"/>
       <c r="J42" s="55">
         <f>J11+J13+J14+J15+J16+J17+J18+J19+J20+J21+J22+J23+J24+J25+J26+J27+J28+J29+J30+J31+J32+J33+J34+J35+J36+J37+J38+J39+J40+J41</f>
-        <v>3.6097800000000007</v>
+        <v>3.9368999999999996</v>
       </c>
       <c r="K42" s="34"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="18"/>
       <c r="O42" s="19"/>
       <c r="P42"/>
@@ -10414,21 +10417,21 @@
       <c r="X42" s="8"/>
     </row>
     <row r="43" spans="1:24" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="95"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="94"/>
       <c r="N43" s="18"/>
       <c r="O43" s="19"/>
       <c r="P43"/>
@@ -10461,73 +10464,73 @@
       <c r="M44" s="54"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
     </row>
     <row r="46" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="119"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="98"/>
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="105"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="90"/>
     </row>
     <row r="49" spans="3:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
